--- a/F9Resource/src/Keywords/Automation Test Cases/Backup/Preferences.xlsx
+++ b/F9Resource/src/Keywords/Automation Test Cases/Backup/Preferences.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestScenarios" r:id="rId1" sheetId="1"/>
-    <sheet name="TestCases Document1" r:id="rId2" sheetId="4"/>
+    <sheet name="TestScenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases Document1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="223">
   <si>
     <t>TestScenario Id</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Login &amp; Leftpanel Menu display</t>
   </si>
   <si>
-    <t>AUTO11018</t>
-  </si>
-  <si>
     <t>Navigate to Preferences Menu &amp; verify the list of Preference Items which are displaying</t>
   </si>
   <si>
@@ -683,23 +680,16 @@
     <t>Verify if we are able to Save/Update PDC preferences by providing data</t>
   </si>
   <si>
-    <t>Blocked</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Screen name which is captured from application is PDC [Accounts]</t>
+  </si>
+  <si>
+    <t>AUTO040119</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -738,7 +728,7 @@
       <name val="OpenSans-Regular"/>
     </font>
   </fonts>
-  <fills count="189">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,931 +742,6 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -1745,165 +810,61 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="3" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="144" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="160" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="162" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="164" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="166" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="168" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="170" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="172" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="174" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="176" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="178" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="180" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="182" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="184" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="186" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FF273A99"/>
@@ -1923,10 +884,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2084,7 +1045,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2093,13 +1054,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2109,7 +1070,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2118,7 +1079,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2127,7 +1088,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2137,12 +1098,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2173,7 +1134,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2192,7 +1153,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2204,19 +1165,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="9" width="91.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="91" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2243,9 +1204,7 @@
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>222</v>
-      </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
@@ -2257,182 +1216,162 @@
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="103" t="s">
-        <v>223</v>
-      </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="106" t="s">
-        <v>223</v>
-      </c>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="108" t="s">
-        <v>223</v>
-      </c>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="110" t="s">
-        <v>223</v>
-      </c>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="113" t="s">
-        <v>223</v>
-      </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="116" t="s">
-        <v>223</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="119" t="s">
-        <v>223</v>
-      </c>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="122" t="s">
-        <v>223</v>
-      </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="125" t="s">
-        <v>223</v>
-      </c>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s" s="127">
-        <v>223</v>
-      </c>
+      <c r="D12" s="8"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="65.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="65.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="20" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -2481,7 +1420,7 @@
       <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
         <v>27</v>
       </c>
@@ -2513,9 +1452,7 @@
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="101" t="s">
-        <v>223</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
@@ -2526,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2539,7 +1476,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row ht="30" r="4" spans="1:33">
+    <row r="4" spans="1:33" ht="30">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2549,9 +1486,7 @@
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="102" t="s">
-        <v>223</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
@@ -2571,30 +1506,28 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row ht="30" r="5" spans="1:33">
+    <row r="5" spans="1:33" ht="30">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="104" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -2612,22 +1545,20 @@
         <v>23</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="105" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -2646,22 +1577,20 @@
         <v>24</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="107" t="s">
-        <v>223</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -2675,82 +1604,80 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row ht="30" r="8" spans="1:33">
+    <row r="8" spans="1:33" ht="30">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="109" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="I8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="J8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="M8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="O8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="P8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="Q8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="R8" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -2758,32 +1685,30 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="111" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="3"/>
@@ -2797,122 +1722,120 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row customHeight="1" ht="33.75" r="11" spans="1:33">
+    <row r="11" spans="1:33" ht="33.75" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="112" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="J11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="L11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="M11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="N11" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="O11" s="13"/>
       <c r="P11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="R11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="S11" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="T11" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="U11" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="V11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="V11" s="13" t="s">
+      <c r="W11" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="W11" s="13" t="s">
+      <c r="X11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="X11" s="13" t="s">
+      <c r="Y11" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Y11" s="13" t="s">
+      <c r="Z11" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Z11" s="13" t="s">
+      <c r="AA11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AA11" s="13" t="s">
+      <c r="AB11" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AB11" s="13" t="s">
+      <c r="AC11" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AC11" s="13" t="s">
+      <c r="AD11" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AD11" s="13" t="s">
+      <c r="AE11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG11" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF11" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG11" s="13" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="3"/>
       <c r="B12" s="8"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="14"/>
@@ -2927,55 +1850,53 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="W12" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA12" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE12" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="3"/>
@@ -2991,85 +1912,83 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
-    <row ht="30" r="14" spans="1:33">
+    <row r="14" spans="1:33" ht="30">
       <c r="A14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="115" t="s">
-        <v>223</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>116</v>
-      </c>
       <c r="F14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="H14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="J14" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="K14" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="L14" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="M14" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="N14" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="O14" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="P14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="Q14" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="R14" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="R14" s="13" t="s">
-        <v>132</v>
-      </c>
       <c r="S14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="T14" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="18"/>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -3085,25 +2004,23 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="117" t="s">
-        <v>223</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -3119,130 +2036,128 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row customHeight="1" ht="30.75" r="17" spans="1:33">
+    <row r="17" spans="1:33" ht="30.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="118" t="s">
-        <v>223</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="13" t="s">
+      <c r="I17" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="J17" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="K17" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="L17" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="M17" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="N17" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="O17" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="P17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R17" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="S17" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X17" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y17" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z17" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA17" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB17" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC17" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD17" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG17" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="W17" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="X17" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y17" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z17" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA17" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB17" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC17" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD17" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF17" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG17" s="13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -3250,7 +2165,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -3258,46 +2173,44 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE18" s="3"/>
       <c r="AF18" s="21"/>
       <c r="AG18" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="120" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="G19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3326,99 +2239,97 @@
       <c r="AF19" s="20"/>
       <c r="AG19" s="20"/>
     </row>
-    <row ht="105" r="20" spans="1:33">
+    <row r="20" spans="1:33" ht="105">
       <c r="A20" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="121" t="s">
-        <v>223</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="I20" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="J20" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="K20" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="L20" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="M20" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="N20" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="O20" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="P20" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="Q20" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="R20" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="R20" s="13" t="s">
+      <c r="S20" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="T20" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="U20" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="U20" s="13" t="s">
+      <c r="V20" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="V20" s="13" t="s">
+      <c r="W20" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="W20" s="13" t="s">
+      <c r="X20" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="X20" s="13" t="s">
+      <c r="Y20" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="Y20" s="13" t="s">
+      <c r="Z20" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="Z20" s="13" t="s">
+      <c r="AA20" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="AA20" s="13" t="s">
+      <c r="AB20" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="AB20" s="13" t="s">
+      <c r="AC20" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AC20" s="13" t="s">
+      <c r="AD20" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="AD20" s="13" t="s">
+      <c r="AE20" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="AE20" s="13" t="s">
-        <v>201</v>
       </c>
       <c r="AF20" s="20"/>
       <c r="AG20" s="20"/>
@@ -3427,78 +2338,78 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="T21" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD21" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="AE21" s="3"/>
       <c r="AF21" s="20"/>
@@ -3506,25 +2417,23 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D22" s="123" t="s">
-        <v>223</v>
-      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -3552,45 +2461,43 @@
       <c r="AF22" s="20"/>
       <c r="AG22" s="20"/>
     </row>
-    <row ht="75" r="23" spans="1:33">
+    <row r="23" spans="1:33" ht="75">
       <c r="A23" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="124" t="s">
-        <v>223</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="F23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="H23" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="J23" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="K23" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="L23" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="M23" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="N23" s="23"/>
       <c r="O23" s="19"/>
@@ -3617,27 +2524,27 @@
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="19"/>
       <c r="F24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
@@ -3662,19 +2569,17 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="126" t="s">
-        <v>223</v>
-      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -3693,7 +2598,7 @@
       <c r="T25" s="19"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>